--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1914763.455031841</v>
+        <v>1910458.332034772</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>68.1169391876612</v>
       </c>
       <c r="C2" t="n">
-        <v>39.70122005611995</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>94.21128653627366</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>107.2409272258923</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="E4" t="n">
-        <v>34.10833718734084</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760041</v>
+        <v>92.85788772760033</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425909</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>168.4616625043548</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>323.9910978934916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>125.2219611596951</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937515</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074796</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>14.5693990499478</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>45.38538499976147</v>
+        <v>40.05337266685284</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>78.7640731938999</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>212.6720677439202</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>20.27697994470972</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>228.8609438335091</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>13.52615597053047</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>185.9158911817653</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>105.5518343409908</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669567</v>
       </c>
       <c r="V16" t="n">
-        <v>167.1438108880243</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701343</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>84.07981473403045</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>271.6533186710367</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>75.75905456204254</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>42.71572132711237</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2763,19 +2763,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>64.91921363453612</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>68.41584059195273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>61.66004604094908</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>177.1006680594869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>1.255571502163651</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>218.0379183711101</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>112.1382188876853</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>166.3208822291519</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>174.2996212791674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,16 +4191,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>224.7837165195613</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652804</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="C2" t="n">
-        <v>710.0001061843511</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="D2" t="n">
-        <v>710.0001061843511</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
-        <v>710.0001061843511</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>520.5803211678661</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513812</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652804</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652804</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652804</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652804</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652804</v>
+        <v>103.9826713767709</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.774068678416</v>
+        <v>276.0998629391042</v>
       </c>
       <c r="C3" t="n">
-        <v>189.774068678416</v>
+        <v>276.0998629391042</v>
       </c>
       <c r="D3" t="n">
-        <v>189.774068678416</v>
+        <v>276.0998629391042</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296051</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296051</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296051</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099437</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V3" t="n">
-        <v>298.0982375934587</v>
+        <v>654.9394329720737</v>
       </c>
       <c r="W3" t="n">
-        <v>298.0982375934587</v>
+        <v>465.519647955589</v>
       </c>
       <c r="X3" t="n">
-        <v>189.774068678416</v>
+        <v>276.0998629391042</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.774068678416</v>
+        <v>276.0998629391042</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>551.7154484413651</v>
+        <v>147.6750444009609</v>
       </c>
       <c r="C5" t="n">
-        <v>551.7154484413651</v>
+        <v>147.6750444009609</v>
       </c>
       <c r="D5" t="n">
-        <v>551.7154484413651</v>
+        <v>147.6750444009609</v>
       </c>
       <c r="E5" t="n">
-        <v>551.7154484413651</v>
+        <v>147.6750444009609</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921616</v>
+        <v>140.7295436517574</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>128.353902506253</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017217</v>
+        <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746976</v>
+        <v>277.9807166746982</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030761</v>
+        <v>521.204941603077</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709179</v>
+        <v>823.5081935709192</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.41363507924</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332758</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837884</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540653</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726301001</v>
+        <v>1586.994975598235</v>
       </c>
       <c r="T5" t="n">
-        <v>1562.810726301001</v>
+        <v>1375.13564073467</v>
       </c>
       <c r="U5" t="n">
-        <v>1562.810726301001</v>
+        <v>1204.972345275726</v>
       </c>
       <c r="V5" t="n">
-        <v>1231.74783895743</v>
+        <v>873.909457932155</v>
       </c>
       <c r="W5" t="n">
-        <v>878.9791836873162</v>
+        <v>521.1408026620408</v>
       </c>
       <c r="X5" t="n">
-        <v>878.9791836873162</v>
+        <v>147.6750444009609</v>
       </c>
       <c r="Y5" t="n">
-        <v>551.7154484413651</v>
+        <v>147.6750444009609</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439.3301344770721</v>
+        <v>357.945495259136</v>
       </c>
       <c r="C6" t="n">
-        <v>439.3301344770721</v>
+        <v>183.492465978009</v>
       </c>
       <c r="D6" t="n">
-        <v>312.8433050228347</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="E6" t="n">
-        <v>312.8433050228347</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="F6" t="n">
-        <v>312.8433050228347</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="G6" t="n">
-        <v>175.7613181367945</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814673</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787536</v>
+        <v>61.66788464787551</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806064</v>
+        <v>186.1577239806067</v>
       </c>
       <c r="L6" t="n">
-        <v>399.872217118998</v>
+        <v>399.8722171189986</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223503</v>
+        <v>668.6238185223513</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352482</v>
+        <v>958.8971200352496</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639509</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703774</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.30937869937</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="T6" t="n">
-        <v>1258.30937869937</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="U6" t="n">
-        <v>1258.30937869937</v>
+        <v>1431.162096209635</v>
       </c>
       <c r="V6" t="n">
-        <v>1023.157270467627</v>
+        <v>1196.009987977892</v>
       </c>
       <c r="W6" t="n">
-        <v>1023.157270467627</v>
+        <v>941.7726312496907</v>
       </c>
       <c r="X6" t="n">
-        <v>815.305770262094</v>
+        <v>733.9211310441578</v>
       </c>
       <c r="Y6" t="n">
-        <v>607.5454714971402</v>
+        <v>526.160832279204</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.40187954883999</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="C7" t="n">
-        <v>80.40187954883999</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="D7" t="n">
-        <v>80.40187954883999</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="E7" t="n">
-        <v>80.40187954883999</v>
+        <v>221.9059560034083</v>
       </c>
       <c r="F7" t="n">
-        <v>80.40187954883999</v>
+        <v>75.01600850549798</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574694</v>
+        <v>64.24066662574708</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584116</v>
+        <v>132.1299861584119</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347973</v>
+        <v>206.9680378347977</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195368</v>
+        <v>287.8841338195373</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934719</v>
+        <v>342.3101561934726</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="W7" t="n">
-        <v>80.40187954883999</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="X7" t="n">
-        <v>80.40187954883999</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="Y7" t="n">
-        <v>80.40187954883999</v>
+        <v>369.8190495858015</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1625.702614406388</v>
+        <v>1193.573958131052</v>
       </c>
       <c r="C8" t="n">
-        <v>1256.740097465976</v>
+        <v>824.6114411906399</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.740097465976</v>
+        <v>466.3457425838894</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>466.3457425838894</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763686</v>
+        <v>55.35983779428181</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711875</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642786</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642786</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>1956.765501749958</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>1625.702614406388</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="W8" t="n">
-        <v>1625.702614406388</v>
+        <v>1953.639556456253</v>
       </c>
       <c r="X8" t="n">
-        <v>1625.702614406388</v>
+        <v>1580.173798195173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1625.702614406388</v>
+        <v>1580.173798195173</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1099.369141021567</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C9" t="n">
-        <v>924.9161117404401</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D9" t="n">
-        <v>924.9161117404401</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
-        <v>765.6786567349845</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F9" t="n">
-        <v>619.1440987618695</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>482.2681049769855</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>482.2681049769855</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>445.6019761092594</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>491.7863446767897</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>648.8776114216187</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>906.4287469816065</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>1226.335642450116</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1569.118166444748</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.477412699315</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>2074.985828260215</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904656</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>2136.471078543833</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>2136.471078543833</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1941.760757017809</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1941.760757017809</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1706.608648786066</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1475.435978247168</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1267.584478041635</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>1267.584478041635</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809311</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809311</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809311</v>
+        <v>370.1727076282649</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809311</v>
+        <v>222.2596140458718</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809311</v>
+        <v>75.36966654796143</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809311</v>
+        <v>75.36966654796143</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809311</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809311</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981541</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018945</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377468</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033668</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U10" t="n">
-        <v>231.1630260146237</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="V10" t="n">
-        <v>43.36919653809311</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809311</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809311</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809311</v>
+        <v>520.2893470406007</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5269,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468466</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589156</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589156</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854704</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V16" t="n">
-        <v>1519.553721644579</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W16" t="n">
-        <v>1230.136551607618</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X16" t="n">
-        <v>1002.147000709601</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y16" t="n">
-        <v>781.3544215660705</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="17">
@@ -5503,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5545,13 +5545,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5582,34 +5582,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>783.5579673960132</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W19" t="n">
-        <v>1413.9885622678</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X19" t="n">
-        <v>1185.999011369783</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.2064322262529</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3195.262992109387</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.32680918148</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.210169769145</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.297076186751</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2581.407128688841</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2414.211029403721</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4115.110757018135</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3825.693586981174</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3597.704036083157</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.911456939627</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W28" t="n">
-        <v>1547.449290305074</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407057</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>156.0995378368093</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.987318831765</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958698</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679629</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>633.9926444679629</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>486.0795508855698</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6864,46 +6864,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487564</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510505</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510505</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304618</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267657</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.36987136964</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261095</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7025,16 +7025,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811333</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532264</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7174,22 +7174,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>988.1395539230172</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C40" t="n">
-        <v>819.2033709951103</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>669.0867315827745</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>521.1736380003814</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>374.283690502471</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>207.087591217351</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.987318831765</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W40" t="n">
-        <v>1618.570148794804</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.580597896787</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y40" t="n">
-        <v>1169.788018753257</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192616</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,28 +7432,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7496,22 +7496,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3053.935450426149</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2884.999267498242</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2734.882628085907</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2586.969534503513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2586.969534503513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.773435218393</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218393</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.185983673936</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4115.110757018134</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3860.426268812247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3684.366045297937</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3456.376494399919</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3235.583915256389</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7733,19 +7733,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>120.1578210480464</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="V16" t="n">
-        <v>84.99383243580371</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>64.53565828418191</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>14.86967966555426</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>64.53565828418135</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>105.8997516911</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>221.265260754708</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>218.1071577446383</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>19.60579027761645</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>144.1654765207676</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>34.09972495271791</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>28.15649395853859</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>112.2233770574236</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>61.40075786968285</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348018</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="14">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049979</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830044</v>
@@ -26331,31 +26331,31 @@
         <v>565002.6197830043</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="I2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253121</v>
+        <v>270592.3620253131</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231937</v>
+        <v>115410.0540231935</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742646</v>
+        <v>601443.207574264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.560844187882673e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.582982036027183e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854466</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881968</v>
+        <v>62913.63765881987</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197506</v>
+        <v>27875.25362197505</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.149809006368741e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888975</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26432,13 +26432,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26447,7 +26447,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26456,10 +26456,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936818</v>
+        <v>76435.73471936822</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.0818558723</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-352150.0288615908</v>
+        <v>-352150.0288615904</v>
       </c>
       <c r="C6" t="n">
-        <v>21096.71923397154</v>
+        <v>21096.71923397059</v>
       </c>
       <c r="D6" t="n">
-        <v>199917.1129370353</v>
+        <v>199917.1129370355</v>
       </c>
       <c r="E6" t="n">
-        <v>-152999.757622047</v>
+        <v>-153347.1368764036</v>
       </c>
       <c r="F6" t="n">
-        <v>448443.4499522186</v>
+        <v>448096.0706978607</v>
       </c>
       <c r="G6" t="n">
-        <v>448443.4499522169</v>
+        <v>448096.0706978605</v>
       </c>
       <c r="H6" t="n">
-        <v>448443.4499522175</v>
+        <v>448096.0706978605</v>
       </c>
       <c r="I6" t="n">
-        <v>448443.4499522178</v>
+        <v>448096.0706978607</v>
       </c>
       <c r="J6" t="n">
-        <v>399378.5052236729</v>
+        <v>399031.1259693159</v>
       </c>
       <c r="K6" t="n">
-        <v>385529.8122933978</v>
+        <v>385182.4330390409</v>
       </c>
       <c r="L6" t="n">
-        <v>420568.1963302424</v>
+        <v>420220.8170758855</v>
       </c>
       <c r="M6" t="n">
-        <v>291297.0694006199</v>
+        <v>290949.6901462628</v>
       </c>
       <c r="N6" t="n">
-        <v>448443.4499522177</v>
+        <v>448096.0706978606</v>
       </c>
       <c r="O6" t="n">
-        <v>448443.4499522174</v>
+        <v>448096.0706978605</v>
       </c>
       <c r="P6" t="n">
-        <v>448443.4499522173</v>
+        <v>448096.0706978607</v>
       </c>
     </row>
   </sheetData>
@@ -26700,7 +26700,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950616</v>
+        <v>758.8996292950621</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376848</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594711</v>
+        <v>431.9757039594716</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261639</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821568</v>
+        <v>210.4296883821576</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262323</v>
+        <v>94.81103524262301</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039892</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.450116793151</v>
+        <v>244.4501167931517</v>
       </c>
       <c r="D4" t="n">
         <v>110.1392527666928</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734845</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,31 +27029,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793151</v>
+        <v>244.4501167931517</v>
       </c>
       <c r="L4" t="n">
         <v>110.1392527666928</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734845</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.632940702530137e-14</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793151</v>
+        <v>244.4501167931517</v>
       </c>
       <c r="L4" t="n">
         <v>110.1392527666928</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734845</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>314.6169024758194</v>
       </c>
       <c r="C2" t="n">
-        <v>325.5716717148876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27435,7 +27435,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871047</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27475,13 +27475,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377083</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310518</v>
+        <v>138.5893006131516</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>98.53205797758517</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.39952676377791</v>
       </c>
       <c r="E4" t="n">
-        <v>112.3256254592283</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425895</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>82.63992218099483</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>62.24684076256199</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>22.22310440494367</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074787</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>211.2645915740513</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>121.2370868304603</v>
+        <v>126.5690991633689</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304049</v>
+        <v>30.24193919304042</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589155</v>
+        <v>36.91115760589146</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>172.3070195002159</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>136.5689009734928</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27937,7 +27937,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>205.5435940233588</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>22.83403932741055</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>135.0136553907147</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923916</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425545</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656385</v>
@@ -28067,10 +28067,10 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>66.22175214206274</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085672</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429367</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520269</v>
+        <v>388.0799144520272</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511777</v>
+        <v>481.447450251178</v>
       </c>
       <c r="M5" t="n">
-        <v>535.70305339681</v>
+        <v>535.7030533968103</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610696</v>
+        <v>544.3712888610701</v>
       </c>
       <c r="O5" t="n">
-        <v>514.034371519149</v>
+        <v>514.0343715191493</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860964</v>
+        <v>438.7164434860967</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634656</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.643131009873</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898983</v>
+        <v>69.52130774898988</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920254</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868538</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062485</v>
+        <v>56.20152915062489</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475936</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316631</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721889</v>
+        <v>354.4276051721892</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658085</v>
+        <v>413.6002979658088</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468666</v>
+        <v>424.5470671468669</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374453</v>
+        <v>388.3776244374456</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547498</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194772</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378881</v>
+        <v>6.579516597378886</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377985</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734532</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635562</v>
+        <v>96.75348224635569</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260801</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162531</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399138</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275348</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.5330748605471</v>
+        <v>61.53307486054715</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391201</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.8472594388308</v>
+        <v>5.847259438830805</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656351</v>
+        <v>0.07464586517656356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508278</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958416</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934783</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190908</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699496</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452749</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076063</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913579</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730381</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475634</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526972</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017478</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368737</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
         <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.582157642014</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153094</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978881</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>502.2268148619681</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>606.5820696732835</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,43 +32147,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,25 +33031,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>508.374771698973</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>567.4250434254225</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>430.1367711736326</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34380,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34453,22 +34453,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>300.768778117042</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198405</v>
+        <v>77.89141170198423</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070464</v>
+        <v>167.9900634070466</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811904</v>
+        <v>245.6810352811908</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695373</v>
+        <v>305.3568201695376</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644787</v>
+        <v>314.9582252644792</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974622</v>
+        <v>283.9361600974626</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308268</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890161</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092694</v>
+        <v>27.38366498092705</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573041</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923147</v>
+        <v>215.873225392315</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437902</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635333</v>
+        <v>293.2053550635336</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930009</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729187</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872824</v>
+        <v>68.38629016872841</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554469</v>
+        <v>29.98243465554481</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501481</v>
+        <v>68.57507023501495</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230878</v>
+        <v>75.59399159230892</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761565</v>
+        <v>81.73343028761579</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569197</v>
+        <v>54.97578017569211</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235228</v>
+        <v>27.78676100235242</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808909</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662056</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.155628697404</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109606</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093964</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169989</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818059</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510198</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440064</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332332</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892926</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850738</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563545</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767808</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769699</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084179</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>359.6305704175236</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>463.9858252288391</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071393</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>243.7989988974576</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8203919190988</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>436.0833313420891</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191277</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010451</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>291.5823913937584</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191277</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010451</v>
@@ -38028,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>169.4270660337087</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1910458.332034772</v>
+        <v>1912218.862337557</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9968920.06193611</v>
+        <v>9968920.061936108</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.1169391876612</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>96.86671316392739</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>94.21128653627366</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>115.6925776258988</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>52.21594625443412</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>20.71716345821438</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760033</v>
+        <v>92.85788772760019</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425872</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>168.4616625043548</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074776</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>10.65708712640198</v>
       </c>
       <c r="U6" t="n">
-        <v>14.5693990499478</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>40.05337266685408</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>40.05337266685284</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>62.17401768251555</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>212.6720677439202</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.27697994470972</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>13.52615597053047</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>125.0721477169158</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771009</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444126</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>64.35711883683385</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701362</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>73.23997380652492</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>222.8161206669567</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701333</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>84.07981473403045</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>65.56423921894587</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.1376433238334</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892427491</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2323,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>56.04917322725558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654825</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>64.91921363453612</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>61.66004604094908</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>75.00788511618082</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>24.83266606353121</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.01175877060098</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936198</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>166.3208822291519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>56.04917322725603</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518786</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>224.7837165195613</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832527</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832527</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>35.17768229832525</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>35.17768229832525</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>28.23218154912178</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262252</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262252</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097404</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097404</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097404</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="X2" t="n">
-        <v>293.4024563932556</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.9826713767709</v>
+        <v>414.0172523312942</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276.0998629391042</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="C3" t="n">
-        <v>276.0998629391042</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="D3" t="n">
-        <v>276.0998629391042</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G3" t="n">
         <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140238</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V3" t="n">
-        <v>654.9394329720737</v>
+        <v>560.682563648794</v>
       </c>
       <c r="W3" t="n">
-        <v>465.519647955589</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="X3" t="n">
-        <v>276.0998629391042</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="Y3" t="n">
-        <v>276.0998629391042</v>
+        <v>254.4015891111996</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>709.3965921992907</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>725.346861488696</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>748.7753949309521</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652786</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147.6750444009609</v>
+        <v>554.3897247347752</v>
       </c>
       <c r="C5" t="n">
-        <v>147.6750444009609</v>
+        <v>533.4632969992051</v>
       </c>
       <c r="D5" t="n">
-        <v>147.6750444009609</v>
+        <v>533.4632969992051</v>
       </c>
       <c r="E5" t="n">
-        <v>147.6750444009609</v>
+        <v>147.6750444009608</v>
       </c>
       <c r="F5" t="n">
         <v>140.7295436517574</v>
@@ -4564,55 +4564,55 @@
         <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017219</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746982</v>
+        <v>277.9807166746996</v>
       </c>
       <c r="L5" t="n">
-        <v>521.204941603077</v>
+        <v>521.2049416030794</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709192</v>
+        <v>823.5081935709223</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582753</v>
+        <v>1135.316836582757</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079241</v>
+        <v>1416.413635079246</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.82224833276</v>
+        <v>1621.822248332765</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837886</v>
+        <v>1727.902815837891</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837886</v>
+        <v>1703.718566540661</v>
       </c>
       <c r="S5" t="n">
-        <v>1586.994975598235</v>
+        <v>1703.718566540661</v>
       </c>
       <c r="T5" t="n">
-        <v>1375.13564073467</v>
+        <v>1491.859231677096</v>
       </c>
       <c r="U5" t="n">
-        <v>1204.972345275726</v>
+        <v>1238.22126734846</v>
       </c>
       <c r="V5" t="n">
-        <v>873.909457932155</v>
+        <v>907.1583800048894</v>
       </c>
       <c r="W5" t="n">
-        <v>521.1408026620408</v>
+        <v>554.3897247347752</v>
       </c>
       <c r="X5" t="n">
-        <v>147.6750444009609</v>
+        <v>554.3897247347752</v>
       </c>
       <c r="Y5" t="n">
-        <v>147.6750444009609</v>
+        <v>554.3897247347752</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>357.945495259136</v>
+        <v>663.7175082377066</v>
       </c>
       <c r="C6" t="n">
-        <v>183.492465978009</v>
+        <v>489.2644789565796</v>
       </c>
       <c r="D6" t="n">
-        <v>34.55805631675773</v>
+        <v>340.3300692953284</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675773</v>
+        <v>181.0926142898729</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787551</v>
+        <v>61.66788464787578</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806067</v>
+        <v>186.1577239806073</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189986</v>
+        <v>399.8722171189996</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223513</v>
+        <v>668.6238185223527</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352496</v>
+        <v>958.8971200352514</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.220686228323</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639513</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906552</v>
+        <v>1401.100270703779</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906552</v>
+        <v>1258.309378699375</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906552</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="U6" t="n">
-        <v>1431.162096209635</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="V6" t="n">
-        <v>1196.009987977892</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="W6" t="n">
-        <v>941.7726312496907</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="X6" t="n">
-        <v>733.9211310441578</v>
+        <v>1039.693144022729</v>
       </c>
       <c r="Y6" t="n">
-        <v>526.160832279204</v>
+        <v>831.9328452577747</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8190495858015</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="E7" t="n">
-        <v>221.9059560034083</v>
+        <v>181.4480038146682</v>
       </c>
       <c r="F7" t="n">
-        <v>75.01600850549798</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574708</v>
+        <v>64.24066662574735</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584119</v>
+        <v>132.1299861584124</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347977</v>
+        <v>206.9680378347985</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195373</v>
+        <v>287.8841338195383</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934726</v>
+        <v>342.3101561934737</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495858028</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1193.573958131052</v>
+        <v>125.1073766066322</v>
       </c>
       <c r="C8" t="n">
-        <v>824.6114411906399</v>
+        <v>125.1073766066322</v>
       </c>
       <c r="D8" t="n">
-        <v>466.3457425838894</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838894</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428181</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711875</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904657</v>
+        <v>1572.544009457209</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904657</v>
+        <v>1241.481122113638</v>
       </c>
       <c r="W8" t="n">
-        <v>1953.639556456253</v>
+        <v>888.7124668435238</v>
       </c>
       <c r="X8" t="n">
-        <v>1580.173798195173</v>
+        <v>515.2467085824439</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.173798195173</v>
+        <v>125.1073766066322</v>
       </c>
     </row>
     <row r="9">
@@ -4859,61 +4859,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.528648459042</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>498.075619177915</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166637</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112082</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.22704733349</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.22704733349</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.22704733349</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
         <v>1745.745249409541</v>
@@ -4928,7 +4928,7 @@
         <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791101</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470406007</v>
+        <v>212.305379466</v>
       </c>
       <c r="C10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>370.1727076282649</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>222.2596140458718</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>75.36966654796143</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>75.36966654796143</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470406007</v>
+        <v>393.9538442962397</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168601</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>577.8620388433919</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C16" t="n">
-        <v>408.925855915485</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1752.394291958027</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V16" t="n">
-        <v>1497.70980375214</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W16" t="n">
-        <v>1208.292633715179</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X16" t="n">
-        <v>980.3030828171618</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y16" t="n">
-        <v>759.5105036736317</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5542,16 +5542,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.3929232910542</v>
+        <v>763.7541388327588</v>
       </c>
       <c r="C19" t="n">
-        <v>782.4567403631473</v>
+        <v>763.7541388327588</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>763.7541388327588</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>615.8410452503657</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>468.9510977524553</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>301.7549984673353</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>160.0431673095333</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.240688199802</v>
+        <v>1683.601903741507</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.823518162841</v>
+        <v>1394.184733704546</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.833967264824</v>
+        <v>1166.195182806529</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.041388121294</v>
+        <v>945.4026036629986</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400644</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121575</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121575</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121575</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121575</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270375</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648812</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611852</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138343</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703041</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.9324428257312</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,19 +6238,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220359</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>444.7013164925216</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>297.8113689946113</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>297.8113689946113</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>156.0995378368093</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6697,19 +6697,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D37" t="n">
         <v>555.8158034133954</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2421.879582505987</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2239.024748160891</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y37" t="n">
-        <v>874.8686257536381</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273903</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7666,34 +7666,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1750.40682139984</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1495.722333193953</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1206.305163156993</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134626</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>82.07684380973532</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>75.37549921168744</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>63.36835372228745</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.712819617939109e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>64.53565828418191</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>15.70159709961968</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194895</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>221.265260754708</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>19.60579027761645</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>211.5151132204102</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>36.41624546988311</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.54258064659044</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>177.5728945814938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>45.4467738245926</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>61.40075786968285</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862142.5848348018</v>
+        <v>862142.5848348022</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.5848348018</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348018</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049977</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830042</v>
-      </c>
-      <c r="F2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830043</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="O2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253131</v>
+        <v>270592.3620253147</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231935</v>
+        <v>115410.0540231911</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.708981578005478e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881987</v>
+        <v>62913.6376588202</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197505</v>
+        <v>27875.25362197445</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263457</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888973</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687956</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687958</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687956</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687956</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687958</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26453,7 +26453,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936822</v>
+        <v>76435.73471936832</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-352150.0288615904</v>
+        <v>-352150.0288615903</v>
       </c>
       <c r="C6" t="n">
-        <v>21096.71923397059</v>
+        <v>21096.71923396895</v>
       </c>
       <c r="D6" t="n">
-        <v>199917.1129370355</v>
+        <v>199917.1129370376</v>
       </c>
       <c r="E6" t="n">
-        <v>-153347.1368764036</v>
+        <v>-153034.4955474834</v>
       </c>
       <c r="F6" t="n">
-        <v>448096.0706978607</v>
+        <v>448408.7120267821</v>
       </c>
       <c r="G6" t="n">
-        <v>448096.0706978605</v>
+        <v>448408.7120267823</v>
       </c>
       <c r="H6" t="n">
-        <v>448096.0706978605</v>
+        <v>448408.7120267814</v>
       </c>
       <c r="I6" t="n">
-        <v>448096.0706978607</v>
+        <v>448408.7120267822</v>
       </c>
       <c r="J6" t="n">
-        <v>399031.1259693159</v>
+        <v>399343.7672982375</v>
       </c>
       <c r="K6" t="n">
-        <v>385182.4330390409</v>
+        <v>385495.0743679618</v>
       </c>
       <c r="L6" t="n">
-        <v>420220.8170758855</v>
+        <v>420533.4584048075</v>
       </c>
       <c r="M6" t="n">
-        <v>290949.6901462628</v>
+        <v>291262.3314751839</v>
       </c>
       <c r="N6" t="n">
-        <v>448096.0706978606</v>
+        <v>448408.712026782</v>
       </c>
       <c r="O6" t="n">
-        <v>448096.0706978605</v>
+        <v>448408.712026782</v>
       </c>
       <c r="P6" t="n">
-        <v>448096.0706978607</v>
+        <v>448408.712026782</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950621</v>
+        <v>758.8996292950631</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594716</v>
+        <v>431.9757039594729</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821576</v>
+        <v>210.4296883821588</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262301</v>
+        <v>94.81103524262107</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-7.45607044130749e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931517</v>
+        <v>244.4501167931532</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666928</v>
+        <v>110.1392527666904</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931517</v>
+        <v>244.450116793153</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666928</v>
+        <v>110.1392527666904</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931517</v>
+        <v>244.4501167931532</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666928</v>
+        <v>110.1392527666904</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.6169024758194</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046879</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543633</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>116.5771678922794</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871047</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27466,22 +27466,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27517,13 +27517,13 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>138.5893006131516</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>90.08040757757864</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>127.6160339275032</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.39952676377791</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>344.5557283127932</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425895</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>82.63992218099483</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937511</v>
+        <v>43.32085084937503</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074787</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>182.9281249710407</v>
       </c>
       <c r="U6" t="n">
-        <v>211.2645915740513</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>108.5621003513583</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>126.5690991633689</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
@@ -27797,7 +27797,7 @@
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304042</v>
+        <v>30.2419391930403</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589146</v>
+        <v>36.91115760589133</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166223</v>
@@ -27830,7 +27830,7 @@
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>292.5090239381674</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>136.5689009734928</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>11.39188093250797</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27988,7 +27988,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5435940233588</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>135.0136553907147</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>93.51250563517902</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.429837397906874e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-3.604576234106293e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.248075665804711e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28563,22 +28563,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28614,16 +28614,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28781,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-5.382680722599116e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085675</v>
+        <v>3.050852781085678</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429367</v>
+        <v>31.24454604429371</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286705</v>
+        <v>258.9373162286709</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520272</v>
+        <v>388.0799144520277</v>
       </c>
       <c r="L5" t="n">
-        <v>481.447450251178</v>
+        <v>481.4474502511786</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968103</v>
+        <v>535.703053396811</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610701</v>
+        <v>544.3712888610708</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191493</v>
+        <v>514.03437151915</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860967</v>
+        <v>438.7164434860972</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634659</v>
+        <v>329.4577782634663</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098734</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898988</v>
+        <v>69.52130774898997</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868539</v>
+        <v>0.2440682224868542</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030888</v>
+        <v>1.63235014603089</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403516</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062489</v>
+        <v>56.20152915062496</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316632</v>
+        <v>263.5887514316636</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721892</v>
+        <v>354.4276051721896</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658088</v>
+        <v>413.6002979658093</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468669</v>
+        <v>424.5470671468674</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374456</v>
+        <v>388.3776244374461</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872496</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547499</v>
+        <v>208.3680642547502</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947723</v>
+        <v>30.32018801947726</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378886</v>
+        <v>6.579516597378894</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734535</v>
+        <v>41.1547536673454</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635569</v>
+        <v>96.75348224635582</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162532</v>
+        <v>203.4597465162535</v>
       </c>
       <c r="M7" t="n">
-        <v>214.519775539914</v>
+        <v>214.5197755399142</v>
       </c>
       <c r="N7" t="n">
-        <v>209.418974752849</v>
+        <v>209.4189747528492</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275349</v>
+        <v>193.4323186275351</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515</v>
+        <v>165.5147650515002</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054715</v>
+        <v>61.53307486054722</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391202</v>
+        <v>23.84935392391205</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830805</v>
+        <v>5.847259438830812</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656356</v>
+        <v>0.07464586517656366</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162539</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34380,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198423</v>
+        <v>77.89141170198457</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070466</v>
+        <v>167.9900634070471</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811908</v>
+        <v>245.6810352811913</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695376</v>
+        <v>305.3568201695383</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644792</v>
+        <v>314.9582252644798</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974626</v>
+        <v>283.9361600974632</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308272</v>
+        <v>207.4834477308277</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890164</v>
+        <v>107.1520883890168</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092705</v>
+        <v>27.38366498092722</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573042</v>
+        <v>125.7473124573046</v>
       </c>
       <c r="L6" t="n">
-        <v>215.873225392315</v>
+        <v>215.8732253923154</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437905</v>
+        <v>271.466264043791</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635336</v>
+        <v>293.2053550635341</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930012</v>
+        <v>245.7813799930016</v>
       </c>
       <c r="P6" t="n">
-        <v>177.732876172919</v>
+        <v>177.7328761729194</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872841</v>
+        <v>68.38629016872864</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554481</v>
+        <v>29.98243465554498</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501495</v>
+        <v>68.57507023501518</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230892</v>
+        <v>75.59399159230918</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761579</v>
+        <v>81.73343028761605</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569211</v>
+        <v>54.97578017569234</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235242</v>
+        <v>27.78676100235262</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066179</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462666</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38028,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
